--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Scaling Factors" sheetId="6" r:id="rId2"/>
-    <sheet name="BAU DR Capacity" sheetId="4" r:id="rId3"/>
+    <sheet name="BAU DR Capacity" sheetId="4" r:id="rId2"/>
+    <sheet name="Scaling Factors" sheetId="6" r:id="rId3"/>
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
     <sheet name="Calculations" sheetId="3" r:id="rId5"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -102,19 +102,22 @@
     <t>Mexico-U.S. Ratios</t>
   </si>
   <si>
+    <t>GDP</t>
+  </si>
+  <si>
     <t>For source information and calculations,</t>
   </si>
   <si>
-    <t>GDP</t>
-  </si>
-  <si>
     <t>see "Mexico US Scaling Factors.xlsx"</t>
   </si>
   <si>
     <t>in the InputData folder.</t>
   </si>
   <si>
-    <t>For Mexico, we scale U.S. data based on GDP ratio.</t>
+    <t>Mexico Notes</t>
+  </si>
+  <si>
+    <t>For Mexico, we scale U.S. values based on GDP ratio.</t>
   </si>
 </sst>
 </file>
@@ -233,14 +236,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -552,22 +555,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,120 +578,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
@@ -703,303 +708,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>2014</v>
-      </c>
-      <c r="D1">
-        <v>2015</v>
-      </c>
-      <c r="E1">
-        <v>2016</v>
-      </c>
-      <c r="F1">
-        <v>2017</v>
-      </c>
-      <c r="G1">
-        <v>2018</v>
-      </c>
-      <c r="H1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="1">
         <v>2019</v>
       </c>
-      <c r="I1">
-        <v>2020</v>
-      </c>
-      <c r="J1">
-        <v>2021</v>
-      </c>
-      <c r="K1">
-        <v>2022</v>
-      </c>
-      <c r="L1">
-        <v>2023</v>
-      </c>
-      <c r="M1">
-        <v>2024</v>
-      </c>
-      <c r="N1">
-        <v>2025</v>
-      </c>
-      <c r="O1">
-        <v>2026</v>
-      </c>
-      <c r="P1">
-        <v>2027</v>
-      </c>
-      <c r="Q1">
-        <v>2028</v>
-      </c>
-      <c r="R1">
-        <v>2029</v>
-      </c>
-      <c r="S1">
-        <v>2030</v>
-      </c>
-      <c r="T1">
-        <v>2031</v>
-      </c>
-      <c r="U1">
-        <v>2032</v>
-      </c>
-      <c r="V1">
-        <v>2033</v>
-      </c>
-      <c r="W1">
-        <v>2034</v>
-      </c>
-      <c r="X1">
-        <v>2035</v>
-      </c>
-      <c r="Y1">
-        <v>2036</v>
-      </c>
-      <c r="Z1">
-        <v>2037</v>
-      </c>
-      <c r="AA1">
-        <v>2038</v>
-      </c>
-      <c r="AB1">
-        <v>2039</v>
-      </c>
-      <c r="AC1">
-        <v>2040</v>
-      </c>
-      <c r="AD1">
-        <v>2041</v>
-      </c>
-      <c r="AE1">
-        <v>2042</v>
-      </c>
-      <c r="AF1">
-        <v>2043</v>
-      </c>
-      <c r="AG1">
-        <v>2044</v>
-      </c>
-      <c r="AH1">
-        <v>2045</v>
-      </c>
-      <c r="AI1">
-        <v>2046</v>
-      </c>
-      <c r="AJ1">
-        <v>2047</v>
-      </c>
-      <c r="AK1">
-        <v>2048</v>
-      </c>
-      <c r="AL1">
-        <v>2049</v>
-      </c>
-      <c r="AM1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="22">
-        <v>9.8636644841800333E-2</v>
-      </c>
-      <c r="D2" s="22">
-        <v>0.1003252824664638</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.10104496285900474</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.10152702997943744</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0.10197979351839384</v>
-      </c>
-      <c r="H2" s="22">
-        <v>0.10245639964773269</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.10296756277334541</v>
-      </c>
-      <c r="J2" s="22">
-        <v>0.10340803251068771</v>
-      </c>
-      <c r="K2" s="22">
-        <v>0.10388755191988928</v>
-      </c>
-      <c r="L2" s="22">
-        <v>0.10440602714772437</v>
-      </c>
-      <c r="M2" s="22">
-        <v>0.10496009002297045</v>
-      </c>
-      <c r="N2" s="22">
-        <v>0.10556555417442678</v>
-      </c>
-      <c r="O2" s="22">
-        <v>0.10600870488733041</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0.10652912605952648</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>0.10713820378721554</v>
-      </c>
-      <c r="R2" s="22">
-        <v>0.1078432446493542</v>
-      </c>
-      <c r="S2" s="22">
-        <v>0.10864823793881466</v>
-      </c>
-      <c r="T2" s="22">
-        <v>0.10949499278959707</v>
-      </c>
-      <c r="U2" s="22">
-        <v>0.11043742468059306</v>
-      </c>
-      <c r="V2" s="22">
-        <v>0.11146883731544265</v>
-      </c>
-      <c r="W2" s="22">
-        <v>0.11257986730772145</v>
-      </c>
-      <c r="X2" s="22">
-        <v>0.11375854360098116</v>
-      </c>
-      <c r="Y2" s="22">
-        <v>0.11500700295303776</v>
-      </c>
-      <c r="Z2" s="22">
-        <v>0.11629345638152376</v>
-      </c>
-      <c r="AA2" s="22">
-        <v>0.11760210049057489</v>
-      </c>
-      <c r="AB2" s="22">
-        <v>0.11891740974492833</v>
-      </c>
-      <c r="AC2" s="22">
-        <v>0.12022482270847104</v>
-      </c>
-      <c r="AD2" s="22">
-        <v>0.1217335942417123</v>
-      </c>
-      <c r="AE2" s="22">
-        <v>0.12321472992477742</v>
-      </c>
-      <c r="AF2" s="22">
-        <v>0.12465772297340184</v>
-      </c>
-      <c r="AG2" s="22">
-        <v>0.12605355536241392</v>
-      </c>
-      <c r="AH2" s="22">
-        <v>0.12739430164149732</v>
-      </c>
-      <c r="AI2" s="22">
-        <v>0.12879656057806463</v>
-      </c>
-      <c r="AJ2" s="22">
-        <v>0.13011576903115954</v>
-      </c>
-      <c r="AK2" s="22">
-        <v>0.13135142612657708</v>
-      </c>
-      <c r="AL2" s="22">
-        <v>0.13250370221109664</v>
-      </c>
-      <c r="AM2" s="22">
-        <v>0.13357320132464462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>30</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+      <c r="H1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>38</v>
+      <c r="I1">
+        <v>2020</v>
+      </c>
+      <c r="J1">
+        <v>2021</v>
+      </c>
+      <c r="K1">
+        <v>2022</v>
+      </c>
+      <c r="L1">
+        <v>2023</v>
+      </c>
+      <c r="M1">
+        <v>2024</v>
+      </c>
+      <c r="N1">
+        <v>2025</v>
+      </c>
+      <c r="O1">
+        <v>2026</v>
+      </c>
+      <c r="P1">
+        <v>2027</v>
+      </c>
+      <c r="Q1">
+        <v>2028</v>
+      </c>
+      <c r="R1">
+        <v>2029</v>
+      </c>
+      <c r="S1">
+        <v>2030</v>
+      </c>
+      <c r="T1">
+        <v>2031</v>
+      </c>
+      <c r="U1">
+        <v>2032</v>
+      </c>
+      <c r="V1">
+        <v>2033</v>
+      </c>
+      <c r="W1">
+        <v>2034</v>
+      </c>
+      <c r="X1">
+        <v>2035</v>
+      </c>
+      <c r="Y1">
+        <v>2036</v>
+      </c>
+      <c r="Z1">
+        <v>2037</v>
+      </c>
+      <c r="AA1">
+        <v>2038</v>
+      </c>
+      <c r="AB1">
+        <v>2039</v>
+      </c>
+      <c r="AC1">
+        <v>2040</v>
+      </c>
+      <c r="AD1">
+        <v>2041</v>
+      </c>
+      <c r="AE1">
+        <v>2042</v>
+      </c>
+      <c r="AF1">
+        <v>2043</v>
+      </c>
+      <c r="AG1">
+        <v>2044</v>
+      </c>
+      <c r="AH1">
+        <v>2045</v>
+      </c>
+      <c r="AI1">
+        <v>2046</v>
+      </c>
+      <c r="AJ1">
+        <v>2047</v>
+      </c>
+      <c r="AK1">
+        <v>2048</v>
+      </c>
+      <c r="AL1">
+        <v>2049</v>
+      </c>
+      <c r="AM1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="21">
+        <v>9.8636644841800333E-2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.1003252824664638</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.10104496285900474</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.10152702997943744</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.10197979351839384</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0.10245639964773269</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0.10296756277334541</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0.10340803251068771</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0.10388755191988928</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.10440602714772437</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0.10496009002297045</v>
+      </c>
+      <c r="N2" s="21">
+        <v>0.10556555417442678</v>
+      </c>
+      <c r="O2" s="21">
+        <v>0.10600870488733041</v>
+      </c>
+      <c r="P2" s="21">
+        <v>0.10652912605952648</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>0.10713820378721554</v>
+      </c>
+      <c r="R2" s="21">
+        <v>0.1078432446493542</v>
+      </c>
+      <c r="S2" s="21">
+        <v>0.10864823793881466</v>
+      </c>
+      <c r="T2" s="21">
+        <v>0.10949499278959707</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0.11043742468059306</v>
+      </c>
+      <c r="V2" s="21">
+        <v>0.11146883731544265</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0.11257986730772145</v>
+      </c>
+      <c r="X2" s="21">
+        <v>0.11375854360098116</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>0.11500700295303776</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>0.11629345638152376</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>0.11760210049057489</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>0.11891740974492833</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>0.12022482270847104</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>0.1217335942417123</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>0.12321472992477742</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>0.12465772297340184</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>0.12605355536241392</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>0.12739430164149732</v>
+      </c>
+      <c r="AI2" s="21">
+        <v>0.12879656057806463</v>
+      </c>
+      <c r="AJ2" s="21">
+        <v>0.13011576903115954</v>
+      </c>
+      <c r="AK2" s="21">
+        <v>0.13135142612657708</v>
+      </c>
+      <c r="AL2" s="21">
+        <v>0.13250370221109664</v>
+      </c>
+      <c r="AM2" s="21">
+        <v>0.13357320132464462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1008,16 +1013,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1069,8 +1074,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,6 +1202,86 @@
       <c r="Q2" s="10">
         <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Q1)*1000*'Scaling Factors'!S2</f>
         <v>4248.1461034076528</v>
+      </c>
+      <c r="R2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,R1)*1000*'Scaling Factors'!T2</f>
+        <v>4292.2037173522067</v>
+      </c>
+      <c r="S2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,S1)*1000*'Scaling Factors'!U2</f>
+        <v>4340.190789947309</v>
+      </c>
+      <c r="T2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,T1)*1000*'Scaling Factors'!V2</f>
+        <v>4391.8721902284415</v>
+      </c>
+      <c r="U2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,U1)*1000*'Scaling Factors'!W2</f>
+        <v>4446.9047586549968</v>
+      </c>
+      <c r="V2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,V1)*1000*'Scaling Factors'!X2</f>
+        <v>4504.8383265988532</v>
+      </c>
+      <c r="W2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,W1)*1000*'Scaling Factors'!Y2</f>
+        <v>4565.7780172356006</v>
+      </c>
+      <c r="X2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,X1)*1000*'Scaling Factors'!Z2</f>
+        <v>4628.479563984647</v>
+      </c>
+      <c r="Y2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Y1)*1000*'Scaling Factors'!AA2</f>
+        <v>4692.3238095739389</v>
+      </c>
+      <c r="Z2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Z1)*1000*'Scaling Factors'!AB2</f>
+        <v>4756.6963897971327</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AA1)*1000*'Scaling Factors'!AC2</f>
+        <v>4821.0153906096875</v>
+      </c>
+      <c r="AB2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AB1)*1000*'Scaling Factors'!AD2</f>
+        <v>4893.690488516836</v>
+      </c>
+      <c r="AC2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AC1)*1000*'Scaling Factors'!AE2</f>
+        <v>4965.5536159685316</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AD1)*1000*'Scaling Factors'!AF2</f>
+        <v>5036.1720081254352</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AE1)*1000*'Scaling Factors'!AG2</f>
+        <v>5105.1689921777634</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AF1)*1000*'Scaling Factors'!AH2</f>
+        <v>5172.20864664479</v>
+      </c>
+      <c r="AG2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AG1)*1000*'Scaling Factors'!AI2</f>
+        <v>5242.0200155272323</v>
+      </c>
+      <c r="AH2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AH1)*1000*'Scaling Factors'!AJ2</f>
+        <v>5308.723376471311</v>
+      </c>
+      <c r="AI2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AI1)*1000*'Scaling Factors'!AK2</f>
+        <v>5372.2733285770037</v>
+      </c>
+      <c r="AJ2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AJ1)*1000*'Scaling Factors'!AL2</f>
+        <v>5432.6517906549625</v>
+      </c>
+      <c r="AK2" s="10">
+        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AK1)*1000*'Scaling Factors'!AM2</f>
+        <v>5489.8585744428929</v>
       </c>
     </row>
   </sheetData>
@@ -1150,13 +1295,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,16 +1370,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1286,8 +1431,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1295,64 +1500,144 @@
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!C1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!D2</f>
-        <v>1003.252824664638</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!C1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!E2</f>
+        <v>1010.4496285900475</v>
       </c>
       <c r="D2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!D1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!E2</f>
-        <v>2020.899257180095</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!D1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!F2</f>
+        <v>2030.5405995887488</v>
       </c>
       <c r="E2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!E1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!F2</f>
-        <v>3045.8108993831233</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!E1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!G2</f>
+        <v>3059.3938055518151</v>
       </c>
       <c r="F2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!F1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!G2</f>
-        <v>4079.1917407357537</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!F1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!H2</f>
+        <v>4098.255985909308</v>
       </c>
       <c r="G2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!G1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!H2</f>
-        <v>5122.8199823866344</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!G1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!I2</f>
+        <v>5148.3781386672708</v>
       </c>
       <c r="H2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!H1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!I2</f>
-        <v>6178.0537664007252</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!H1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!J2</f>
+        <v>6204.4819506412623</v>
       </c>
       <c r="I2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!I1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!J2</f>
-        <v>7238.5622757481397</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!I1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!K2</f>
+        <v>7272.1286343922502</v>
       </c>
       <c r="J2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!J1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!K2</f>
-        <v>8311.0041535911423</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!J1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!L2</f>
+        <v>8352.4821718179501</v>
       </c>
       <c r="K2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!K1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!L2</f>
-        <v>9396.5424432951932</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!K1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!M2</f>
+        <v>9446.4081020673402</v>
       </c>
       <c r="L2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!L1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!M2</f>
-        <v>10496.009002297045</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!L1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!N2</f>
+        <v>10556.555417442678</v>
       </c>
       <c r="M2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!M1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!N2</f>
-        <v>11612.210959186947</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!M1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!O2</f>
+        <v>11660.957537606346</v>
       </c>
       <c r="N2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!N1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!O2</f>
-        <v>12721.044586479649</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!N1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!P2</f>
+        <v>12783.495127143178</v>
       </c>
       <c r="O2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!O1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!P2</f>
-        <v>13848.786387738442</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!O1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!Q2</f>
+        <v>13927.966492338021</v>
       </c>
       <c r="P2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!P1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!Q2</f>
-        <v>14999.348530210176</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!P1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!R2</f>
+        <v>15098.054250909589</v>
       </c>
       <c r="Q2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!Q1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!R2</f>
-        <v>16176.48669740313</v>
+        <f>Calculations!$B$5*('DRC-PADRC'!Q1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!S2</f>
+        <v>16297.235690822199</v>
+      </c>
+      <c r="R2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!R1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!T2</f>
+        <v>17519.19884633553</v>
+      </c>
+      <c r="S2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!S1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!U2</f>
+        <v>18774.362195700822</v>
+      </c>
+      <c r="T2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!T1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!V2</f>
+        <v>20064.390716779675</v>
+      </c>
+      <c r="U2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!U1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!W2</f>
+        <v>21390.174788467073</v>
+      </c>
+      <c r="V2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!V1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!X2</f>
+        <v>22751.708720196231</v>
+      </c>
+      <c r="W2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!W1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!Y2</f>
+        <v>24151.47062013793</v>
+      </c>
+      <c r="X2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!X1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!Z2</f>
+        <v>25584.560403935226</v>
+      </c>
+      <c r="Y2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!Y1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AA2</f>
+        <v>27048.483112832226</v>
+      </c>
+      <c r="Z2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!Z1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AB2</f>
+        <v>28540.1783387828</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AA1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AC2</f>
+        <v>30056.205677117759</v>
+      </c>
+      <c r="AB2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AB1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AD2</f>
+        <v>31650.7345028452</v>
+      </c>
+      <c r="AC2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AC1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AE2</f>
+        <v>33267.977079689903</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AD1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AF2</f>
+        <v>34904.162432552519</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AE1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AG2</f>
+        <v>36555.531055100037</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AF1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AH2</f>
+        <v>38218.290492449196</v>
+      </c>
+      <c r="AG2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AG1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AI2</f>
+        <v>39926.933779200037</v>
+      </c>
+      <c r="AH2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AH1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AJ2</f>
+        <v>41637.046089971052</v>
+      </c>
+      <c r="AI2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AI1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AK2</f>
+        <v>43345.970621770437</v>
+      </c>
+      <c r="AJ2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AJ1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AL2</f>
+        <v>45051.258751772861</v>
+      </c>
+      <c r="AK2" s="10">
+        <f>Calculations!$B$5*('DRC-PADRC'!AK1-'DRC-PADRC'!$B$1)*1000*'Scaling Factors'!AM2</f>
+        <v>46750.620463625615</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/DRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B23A44-7F7F-A14C-9518-9D405E940087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23955" windowHeight="12270" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="23960" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
-    <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
+    <sheet name="Scaling Factors" sheetId="6" r:id="rId3"/>
+    <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
+    <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -88,13 +101,34 @@
   </si>
   <si>
     <t>Peak Power Demand after Storage and DR[summer] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Mexico-U.S. Ratios</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>For source information and calculations,</t>
+  </si>
+  <si>
+    <t>see "Mexico US Scaling Factors.xlsx"</t>
+  </si>
+  <si>
+    <t>in the InputData folder.</t>
+  </si>
+  <si>
+    <t>Mexico Values are scaled with GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -160,13 +202,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,6 +309,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,149 +553,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -621,34 +705,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>2019</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>59000</v>
       </c>
@@ -656,12 +738,12 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -762,7 +844,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -826,43 +908,43 @@
       <c r="U7">
         <v>836502</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>841698</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <v>847887</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <v>853549</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="12">
         <v>859603</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>866464</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="12">
         <v>873306</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="12">
         <v>881021</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <v>888875</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
         <v>896015</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="12">
         <v>903925</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="12">
         <v>912866</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="12">
         <v>922440</v>
       </c>
-      <c r="AH7" s="13"/>
+      <c r="AH7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -871,22 +953,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2C662D-3E4B-D847-BD9D-5DB361B9A6C7}">
+  <dimension ref="A1:AM6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+      <c r="H1">
+        <v>2019</v>
+      </c>
+      <c r="I1">
+        <v>2020</v>
+      </c>
+      <c r="J1">
+        <v>2021</v>
+      </c>
+      <c r="K1">
+        <v>2022</v>
+      </c>
+      <c r="L1">
+        <v>2023</v>
+      </c>
+      <c r="M1">
+        <v>2024</v>
+      </c>
+      <c r="N1">
+        <v>2025</v>
+      </c>
+      <c r="O1">
+        <v>2026</v>
+      </c>
+      <c r="P1">
+        <v>2027</v>
+      </c>
+      <c r="Q1">
+        <v>2028</v>
+      </c>
+      <c r="R1">
+        <v>2029</v>
+      </c>
+      <c r="S1">
+        <v>2030</v>
+      </c>
+      <c r="T1">
+        <v>2031</v>
+      </c>
+      <c r="U1">
+        <v>2032</v>
+      </c>
+      <c r="V1">
+        <v>2033</v>
+      </c>
+      <c r="W1">
+        <v>2034</v>
+      </c>
+      <c r="X1">
+        <v>2035</v>
+      </c>
+      <c r="Y1">
+        <v>2036</v>
+      </c>
+      <c r="Z1">
+        <v>2037</v>
+      </c>
+      <c r="AA1">
+        <v>2038</v>
+      </c>
+      <c r="AB1">
+        <v>2039</v>
+      </c>
+      <c r="AC1">
+        <v>2040</v>
+      </c>
+      <c r="AD1">
+        <v>2041</v>
+      </c>
+      <c r="AE1">
+        <v>2042</v>
+      </c>
+      <c r="AF1">
+        <v>2043</v>
+      </c>
+      <c r="AG1">
+        <v>2044</v>
+      </c>
+      <c r="AH1">
+        <v>2045</v>
+      </c>
+      <c r="AI1">
+        <v>2046</v>
+      </c>
+      <c r="AJ1">
+        <v>2047</v>
+      </c>
+      <c r="AK1">
+        <v>2048</v>
+      </c>
+      <c r="AL1">
+        <v>2049</v>
+      </c>
+      <c r="AM1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14">
+        <v>9.8636644841800333E-2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.1003252824664638</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.10104496285900474</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.10152702997943744</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.10197979351839384</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.10245639964773269</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.10296756277334541</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.10340803251068771</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0.10388755191988928</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0.10440602714772437</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.10496009002297045</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.10556555417442678</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.10600870488733041</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0.10652912605952648</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0.10713820378721554</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.1078432446493542</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0.10864823793881466</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0.10949499278959707</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0.11043742468059306</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0.11146883731544265</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0.11257986730772145</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0.11375854360098116</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0.11500700295303776</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0.11629345638152376</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0.11760210049057489</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0.11891740974492833</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>0.12022482270847104</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0.1217335942417123</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>0.12321472992477742</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0.12465772297340184</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>0.12605355536241392</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0.12739430164149732</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0.12879656057806463</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0.13011576903115954</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0.13135142612657708</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>0.13250370221109664</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>0.13357320132464462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AH2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,141 +1340,141 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f>C2</f>
-        <v>59000</v>
+        <f>C2*'Scaling Factors'!G2</f>
+        <v>616.46046636211531</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3</f>
-        <v>59000</v>
+        <f>Calculations!A3*'Scaling Factors'!H2</f>
+        <v>6044.9275792162289</v>
       </c>
       <c r="D2" s="8">
-        <f>$C$2*(Calculations!C7/Calculations!$B$7)</f>
-        <v>53577.217418126507</v>
+        <f>$C$2*(Calculations!C7/Calculations!$B$7)*'Scaling Factors'!I2</f>
+        <v>565.22280777745777</v>
       </c>
       <c r="E2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$B$7)</f>
-        <v>57181.528340619247</v>
+        <f>$C$2*(Calculations!D7/Calculations!$B$7)*'Scaling Factors'!J2</f>
+        <v>605.82769735763725</v>
       </c>
       <c r="F2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$B$7)</f>
-        <v>58517.96616569344</v>
+        <f>$C$2*(Calculations!E7/Calculations!$B$7)*'Scaling Factors'!K2</f>
+        <v>622.86198634003244</v>
       </c>
       <c r="G2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$B$7)</f>
-        <v>59414.651073741981</v>
+        <f>$C$2*(Calculations!F7/Calculations!$B$7)*'Scaling Factors'!L2</f>
+        <v>635.56242269646862</v>
       </c>
       <c r="H2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$B$7)</f>
-        <v>60093.89126434581</v>
+        <f>$C$2*(Calculations!G7/Calculations!$B$7)*'Scaling Factors'!M2</f>
+        <v>646.23966679773173</v>
       </c>
       <c r="I2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$B$7)</f>
-        <v>60597.026335662697</v>
+        <f>$C$2*(Calculations!H7/Calculations!$B$7)*'Scaling Factors'!N2</f>
+        <v>655.40935365947666</v>
       </c>
       <c r="J2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$B$7)</f>
-        <v>60929.939532212265</v>
+        <f>$C$2*(Calculations!I7/Calculations!$B$7)*'Scaling Factors'!O2</f>
+        <v>661.77653860519933</v>
       </c>
       <c r="K2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$B$7)</f>
-        <v>61158.99385217567</v>
+        <f>$C$2*(Calculations!J7/Calculations!$B$7)*'Scaling Factors'!P2</f>
+        <v>667.52538635687949</v>
       </c>
       <c r="L2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$B$7)</f>
-        <v>61535.992160992158</v>
+        <f>$C$2*(Calculations!K7/Calculations!$B$7)*'Scaling Factors'!Q2</f>
+        <v>675.48025518068039</v>
       </c>
       <c r="M2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$B$7)</f>
-        <v>62153.419062509973</v>
+        <f>$C$2*(Calculations!L7/Calculations!$B$7)*'Scaling Factors'!R2</f>
+        <v>686.74745812833339</v>
       </c>
       <c r="N2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$B$7)</f>
-        <v>62478.566376293653</v>
+        <f>$C$2*(Calculations!M7/Calculations!$B$7)*'Scaling Factors'!S2</f>
+        <v>695.49311262986691</v>
       </c>
       <c r="O2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$B$7)</f>
-        <v>62828.893976621257</v>
+        <f>$C$2*(Calculations!N7/Calculations!$B$7)*'Scaling Factors'!T2</f>
+        <v>704.84360611464388</v>
       </c>
       <c r="P2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$B$7)</f>
-        <v>63235.70072433709</v>
+        <f>$C$2*(Calculations!O7/Calculations!$B$7)*'Scaling Factors'!U2</f>
+        <v>715.51327653242777</v>
       </c>
       <c r="Q2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$B$7)</f>
-        <v>63567.907931544294</v>
+        <f>$C$2*(Calculations!P7/Calculations!$B$7)*'Scaling Factors'!V2</f>
+        <v>725.98973558524165</v>
       </c>
       <c r="R2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$B$7)</f>
-        <v>63904.115745024836</v>
+        <f>$C$2*(Calculations!Q7/Calculations!$B$7)*'Scaling Factors'!W2</f>
+        <v>737.10380452679942</v>
       </c>
       <c r="S2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$B$7)</f>
-        <v>64308.412308412306</v>
+        <f>$C$2*(Calculations!R7/Calculations!$B$7)*'Scaling Factors'!X2</f>
+        <v>749.53324676053103</v>
       </c>
       <c r="T2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$B$7)</f>
-        <v>64696.392673665396</v>
+        <f>$C$2*(Calculations!S7/Calculations!$B$7)*'Scaling Factors'!Y2</f>
+        <v>762.33075779769752</v>
       </c>
       <c r="U2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$B$7)</f>
-        <v>65186.192390737844</v>
+        <f>$C$2*(Calculations!T7/Calculations!$B$7)*'Scaling Factors'!Z2</f>
+        <v>776.6940588059249</v>
       </c>
       <c r="V2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$B$7)</f>
-        <v>65617.944095216822</v>
+        <f>$C$2*(Calculations!U7/Calculations!$B$7)*'Scaling Factors'!AA2</f>
+        <v>790.63637013614004</v>
       </c>
       <c r="W2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$B$7)</f>
-        <v>66025.53527553528</v>
+        <f>$C$2*(Calculations!V7/Calculations!$B$7)*'Scaling Factors'!AB2</f>
+        <v>804.44519537946576</v>
       </c>
       <c r="X2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$B$7)</f>
-        <v>66511.020613293338</v>
+        <f>$C$2*(Calculations!W7/Calculations!$B$7)*'Scaling Factors'!AC2</f>
+        <v>819.26961485708398</v>
       </c>
       <c r="Y2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$B$7)</f>
-        <v>66955.166352893619</v>
+        <f>$C$2*(Calculations!X7/Calculations!$B$7)*'Scaling Factors'!AD2</f>
+        <v>835.09066486358199</v>
       </c>
       <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$B$7)</f>
-        <v>67430.061850516402</v>
+        <f>$C$2*(Calculations!Y7/Calculations!$B$7)*'Scaling Factors'!AE2</f>
+        <v>851.24637996369404</v>
       </c>
       <c r="AA2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$B$7)</f>
-        <v>67968.261059170152</v>
+        <f>$C$2*(Calculations!Z7/Calculations!$B$7)*'Scaling Factors'!AF2</f>
+        <v>868.08937175686106</v>
       </c>
       <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$B$7)</f>
-        <v>68504.969845878935</v>
+        <f>$C$2*(Calculations!AA7/Calculations!$B$7)*'Scaling Factors'!AG2</f>
+        <v>884.7412365251422</v>
       </c>
       <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$B$7)</f>
-        <v>69110.159598795974</v>
+        <f>$C$2*(Calculations!AB7/Calculations!$B$7)*'Scaling Factors'!AH2</f>
+        <v>902.05078515010689</v>
       </c>
       <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$B$7)</f>
-        <v>69726.252964889325</v>
+        <f>$C$2*(Calculations!AC7/Calculations!$B$7)*'Scaling Factors'!AI2</f>
+        <v>920.10985726534511</v>
       </c>
       <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$B$7)</f>
-        <v>70286.337843156027</v>
+        <f>$C$2*(Calculations!AD7/Calculations!$B$7)*'Scaling Factors'!AJ2</f>
+        <v>937.00075137984061</v>
       </c>
       <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$B$7)</f>
-        <v>70906.824031824042</v>
+        <f>$C$2*(Calculations!AE7/Calculations!$B$7)*'Scaling Factors'!AK2</f>
+        <v>954.24944587123423</v>
       </c>
       <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$B$7)</f>
-        <v>71608.185221821579</v>
+        <f>$C$2*(Calculations!AF7/Calculations!$B$7)*'Scaling Factors'!AL2</f>
+        <v>972.14214379000543</v>
       </c>
       <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$B$7)</f>
-        <v>72359.200995564635</v>
+        <f>$C$2*(Calculations!AG7/Calculations!$B$7)*'Scaling Factors'!AM2</f>
+        <v>990.2667292226929</v>
       </c>
     </row>
   </sheetData>
@@ -1132,23 +1482,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:AH2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,141 +1600,141 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>C2</f>
+        <f>C2*'Scaling Factors'!G2</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3-'DRC-BDRC'!C2</f>
+        <f>Calculations!A3*'Scaling Factors'!H2-'DRC-BDRC'!C2</f>
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)-'DRC-BDRC'!D2</f>
-        <v>18059.14621823679</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*'Scaling Factors'!I2-'DRC-BDRC'!D2</f>
+        <v>6810.998961803979</v>
       </c>
       <c r="E2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)-'DRC-BDRC'!E2</f>
-        <v>27091.198932111074</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*'Scaling Factors'!J2-'DRC-BDRC'!E2</f>
+        <v>8108.6492242251788</v>
       </c>
       <c r="F2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)-'DRC-BDRC'!F2</f>
-        <v>38391.124743400178</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*'Scaling Factors'!K2-'DRC-BDRC'!F2</f>
+        <v>9444.7862269877005</v>
       </c>
       <c r="G2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)-'DRC-BDRC'!G2</f>
-        <v>50130.803471714935</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*'Scaling Factors'!L2-'DRC-BDRC'!G2</f>
+        <v>10801.643278486314</v>
       </c>
       <c r="H2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)-'DRC-BDRC'!H2</f>
-        <v>62087.926917474404</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*'Scaling Factors'!M2-'DRC-BDRC'!H2</f>
+        <v>12177.974968736326</v>
       </c>
       <c r="I2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)-'DRC-BDRC'!I2</f>
-        <v>74221.155482520815</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*'Scaling Factors'!N2-'DRC-BDRC'!I2</f>
+        <v>13576.746722765694</v>
       </c>
       <c r="J2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)-'DRC-BDRC'!J2</f>
-        <v>86524.605922334536</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*'Scaling Factors'!O2-'DRC-BDRC'!J2</f>
+        <v>14969.688854781301</v>
       </c>
       <c r="K2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)-'DRC-BDRC'!K2</f>
-        <v>98931.915238734437</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*'Scaling Factors'!P2-'DRC-BDRC'!K2</f>
+        <v>16386.819249172877</v>
       </c>
       <c r="L2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)-'DRC-BDRC'!L2</f>
-        <v>111191.28056628125</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*'Scaling Factors'!Q2-'DRC-BDRC'!L2</f>
+        <v>17830.209489883899</v>
       </c>
       <c r="M2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)-'DRC-BDRC'!M2</f>
-        <v>123210.21730112673</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*'Scaling Factors'!R2-'DRC-BDRC'!M2</f>
+        <v>19303.468527329267</v>
       </c>
       <c r="N2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)-'DRC-BDRC'!N2</f>
-        <v>135521.43362370634</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*'Scaling Factors'!S2-'DRC-BDRC'!N2</f>
+        <v>20816.857999255437</v>
       </c>
       <c r="O2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)-'DRC-BDRC'!O2</f>
-        <v>147807.46965974203</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)*'Scaling Factors'!T2-'DRC-BDRC'!O2</f>
+        <v>22358.783511475904</v>
       </c>
       <c r="P2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)-'DRC-BDRC'!P2</f>
-        <v>160037.02654839325</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)*'Scaling Factors'!U2-'DRC-BDRC'!P2</f>
+        <v>23942.151724880325</v>
       </c>
       <c r="Q2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)-'DRC-BDRC'!Q2</f>
-        <v>172341.18297754932</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)*'Scaling Factors'!V2-'DRC-BDRC'!Q2</f>
+        <v>25570.522340194486</v>
       </c>
       <c r="R2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)-'DRC-BDRC'!R2</f>
-        <v>184641.33880043207</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)*'Scaling Factors'!W2-'DRC-BDRC'!R2</f>
+        <v>27244.110488138052</v>
       </c>
       <c r="S2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)-'DRC-BDRC'!S2</f>
-        <v>196873.4058734079</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)*'Scaling Factors'!X2-'DRC-BDRC'!S2</f>
+        <v>28962.130004659597</v>
       </c>
       <c r="T2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)-'DRC-BDRC'!T2</f>
-        <v>209121.78914451812</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)*'Scaling Factors'!Y2-'DRC-BDRC'!T2</f>
+        <v>30728.677687161566</v>
       </c>
       <c r="U2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)-'DRC-BDRC'!U2</f>
-        <v>221268.35306380896</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)*'Scaling Factors'!Z2-'DRC-BDRC'!U2</f>
+        <v>32536.095128301629</v>
       </c>
       <c r="V2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)-'DRC-BDRC'!V2</f>
-        <v>233472.9649956933</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)*'Scaling Factors'!AA2-'DRC-BDRC'!V2</f>
+        <v>34383.082776590469</v>
       </c>
       <c r="W2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)-'DRC-BDRC'!W2</f>
-        <v>245701.73745173812</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)*'Scaling Factors'!AB2-'DRC-BDRC'!W2</f>
+        <v>36265.354624198728</v>
       </c>
       <c r="X2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)-'DRC-BDRC'!X2</f>
-        <v>257852.61575034336</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)*'Scaling Factors'!AC2-'DRC-BDRC'!X2</f>
+        <v>38177.291060036107</v>
       </c>
       <c r="Y2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)-'DRC-BDRC'!Y2</f>
-        <v>270044.83364710637</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)*'Scaling Factors'!AD2-'DRC-BDRC'!Y2</f>
+        <v>40189.130594593466</v>
       </c>
       <c r="Z2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)-'DRC-BDRC'!Z2</f>
-        <v>282206.30178584688</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)*'Scaling Factors'!AE2-'DRC-BDRC'!Z2</f>
+        <v>42229.103737372076</v>
       </c>
       <c r="AA2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)-'DRC-BDRC'!AA2</f>
-        <v>294304.4662135602</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)*'Scaling Factors'!AF2-'DRC-BDRC'!AA2</f>
+        <v>44292.00390542591</v>
       </c>
       <c r="AB2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)-'DRC-BDRC'!AB2</f>
-        <v>306404.12106321467</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)*'Scaling Factors'!AG2-'DRC-BDRC'!AB2</f>
+        <v>46373.882610256558</v>
       </c>
       <c r="AC2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)-'DRC-BDRC'!AC2</f>
-        <v>318435.29494666093</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)*'Scaling Factors'!AH2-'DRC-BDRC'!AC2</f>
+        <v>48469.031751005015</v>
       </c>
       <c r="AD2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)-'DRC-BDRC'!AD2</f>
-        <v>330455.56521693087</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)*'Scaling Factors'!AI2-'DRC-BDRC'!AD2</f>
+        <v>50621.931930429506</v>
       </c>
       <c r="AE2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)-'DRC-BDRC'!AE2</f>
-        <v>342531.8439750275</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)*'Scaling Factors'!AJ2-'DRC-BDRC'!AE2</f>
+        <v>52777.154445938148</v>
       </c>
       <c r="AF2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)-'DRC-BDRC'!AF2</f>
-        <v>354547.7214227228</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)*'Scaling Factors'!AK2-'DRC-BDRC'!AF2</f>
+        <v>54929.811851618098</v>
       </c>
       <c r="AG2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)-'DRC-BDRC'!AG2</f>
-        <v>366482.72386908851</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)*'Scaling Factors'!AL2-'DRC-BDRC'!AG2</f>
+        <v>57076.525215780559</v>
       </c>
       <c r="AH2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)-'DRC-BDRC'!AH2</f>
-        <v>378368.07173170877</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)*'Scaling Factors'!AM2-'DRC-BDRC'!AH2</f>
+        <v>59214.818013285403</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/DRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B23A44-7F7F-A14C-9518-9D405E940087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF18D30-C872-8641-B28C-E82493455792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="23960" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="23960" windowHeight="12280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Mexico Values are scaled with GDP</t>
+  </si>
+  <si>
+    <t>implementation curve</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -956,11 +962,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2C662D-3E4B-D847-BD9D-5DB361B9A6C7}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:W3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
@@ -1199,9 +1217,286 @@
         <v>0.13357320132464462</v>
       </c>
     </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3:W3" si="0">(($X3-$M3)/($X1-$M1))*(N1-$M1)+$M3</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="T3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="V3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="W3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="14">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" ref="C4:AM4" si="1">C2*C3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" si="1"/>
+        <v>9.5968685613115265E-3</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9274309979514622E-2</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="1"/>
+        <v>2.9053398016234494E-2</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="1"/>
+        <v>3.8959346831714745E-2</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9019656658797366E-2</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="1"/>
+        <v>5.9262675239353448E-2</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="1"/>
+        <v>6.9678631775198133E-2</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" si="1"/>
+        <v>8.0318127040431314E-2</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" si="1"/>
+        <v>9.1201775985362166E-2</v>
+      </c>
+      <c r="W4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.10234533391611042</v>
+      </c>
+      <c r="X4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11375854360098116</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11500700295303776</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11629345638152376</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11760210049057489</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11891740974492833</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12022482270847104</v>
+      </c>
+      <c r="AD4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1217335942417123</v>
+      </c>
+      <c r="AE4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12321472992477742</v>
+      </c>
+      <c r="AF4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12465772297340184</v>
+      </c>
+      <c r="AG4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12605355536241392</v>
+      </c>
+      <c r="AH4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12739430164149732</v>
+      </c>
+      <c r="AI4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12879656057806463</v>
+      </c>
+      <c r="AJ4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13011576903115954</v>
+      </c>
+      <c r="AK4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13135142612657708</v>
+      </c>
+      <c r="AL4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13250370221109664</v>
+      </c>
+      <c r="AM4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13357320132464462</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
@@ -1227,7 +1522,7 @@
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1345,136 +1640,136 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f>C2*'Scaling Factors'!G2</f>
-        <v>616.46046636211531</v>
+        <f>C2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3*'Scaling Factors'!H2</f>
-        <v>6044.9275792162289</v>
+        <f>Calculations!A3*'Scaling Factors'!H4</f>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>$C$2*(Calculations!C7/Calculations!$B$7)*'Scaling Factors'!I2</f>
-        <v>565.22280777745777</v>
+        <f>(Calculations!$A3)*(Calculations!C7/Calculations!$B$7)*'Scaling Factors'!I4</f>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$B$7)*'Scaling Factors'!J2</f>
-        <v>605.82769735763725</v>
+        <f>(Calculations!$A3)*(Calculations!D7/Calculations!$B$7)*'Scaling Factors'!J4</f>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$B$7)*'Scaling Factors'!K2</f>
-        <v>622.86198634003244</v>
+        <f>(Calculations!$A3)*(Calculations!E7/Calculations!$B$7)*'Scaling Factors'!K4</f>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$B$7)*'Scaling Factors'!L2</f>
-        <v>635.56242269646862</v>
+        <f>(Calculations!$A3)*(Calculations!F7/Calculations!$B$7)*'Scaling Factors'!L4</f>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$B$7)*'Scaling Factors'!M2</f>
-        <v>646.23966679773173</v>
+        <f>(Calculations!$A3)*(Calculations!G7/Calculations!$B$7)*'Scaling Factors'!M4</f>
+        <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$B$7)*'Scaling Factors'!N2</f>
-        <v>655.40935365947666</v>
+        <f>(Calculations!$A3)*(Calculations!H7/Calculations!$B$7)*'Scaling Factors'!N4</f>
+        <v>581.54169694968789</v>
       </c>
       <c r="J2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$B$7)*'Scaling Factors'!O2</f>
-        <v>661.77653860519933</v>
+        <f>(Calculations!$A3)*(Calculations!I7/Calculations!$B$7)*'Scaling Factors'!O4</f>
+        <v>1174.3825415769413</v>
       </c>
       <c r="K2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$B$7)*'Scaling Factors'!P2</f>
-        <v>667.52538635687949</v>
+        <f>(Calculations!$A3)*(Calculations!J7/Calculations!$B$7)*'Scaling Factors'!P4</f>
+        <v>1776.8765906596982</v>
       </c>
       <c r="L2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$B$7)*'Scaling Factors'!Q2</f>
-        <v>675.48025518068039</v>
+        <f>(Calculations!$A3)*(Calculations!K7/Calculations!$B$7)*'Scaling Factors'!Q4</f>
+        <v>2397.4020612337731</v>
       </c>
       <c r="M2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$B$7)*'Scaling Factors'!R2</f>
-        <v>686.74745812833339</v>
+        <f>(Calculations!$A3)*(Calculations!L7/Calculations!$B$7)*'Scaling Factors'!R4</f>
+        <v>3046.7392626145902</v>
       </c>
       <c r="N2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$B$7)*'Scaling Factors'!S2</f>
-        <v>695.49311262986691</v>
+        <f>(Calculations!$A3)*(Calculations!M7/Calculations!$B$7)*'Scaling Factors'!S4</f>
+        <v>3702.6469885786787</v>
       </c>
       <c r="O2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$B$7)*'Scaling Factors'!T2</f>
-        <v>704.84360611464388</v>
+        <f>(Calculations!$A3)*(Calculations!N7/Calculations!$B$7)*'Scaling Factors'!T4</f>
+        <v>4377.8313682399566</v>
       </c>
       <c r="P2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$B$7)*'Scaling Factors'!U2</f>
-        <v>715.51327653242777</v>
+        <f>(Calculations!$A3)*(Calculations!O7/Calculations!$B$7)*'Scaling Factors'!U4</f>
+        <v>5078.9730442680011</v>
       </c>
       <c r="Q2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$B$7)*'Scaling Factors'!V2</f>
-        <v>725.98973558524165</v>
+        <f>(Calculations!$A3)*(Calculations!P7/Calculations!$B$7)*'Scaling Factors'!V4</f>
+        <v>5797.5060990308293</v>
       </c>
       <c r="R2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$B$7)*'Scaling Factors'!W2</f>
-        <v>737.10380452679942</v>
+        <f>(Calculations!$A3)*(Calculations!Q7/Calculations!$B$7)*'Scaling Factors'!W4</f>
+        <v>6540.2880645383366</v>
       </c>
       <c r="S2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$B$7)*'Scaling Factors'!X2</f>
-        <v>749.53324676053103</v>
+        <f>(Calculations!$A3)*(Calculations!R7/Calculations!$B$7)*'Scaling Factors'!X4</f>
+        <v>7315.6313254963943</v>
       </c>
       <c r="T2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$B$7)*'Scaling Factors'!Y2</f>
-        <v>762.33075779769752</v>
+        <f>(Calculations!$A3)*(Calculations!S7/Calculations!$B$7)*'Scaling Factors'!Y4</f>
+        <v>7440.5382232711263</v>
       </c>
       <c r="U2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$B$7)*'Scaling Factors'!Z2</f>
-        <v>776.6940588059249</v>
+        <f>(Calculations!$A3)*(Calculations!T7/Calculations!$B$7)*'Scaling Factors'!Z4</f>
+        <v>7580.7276214698877</v>
       </c>
       <c r="V2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$B$7)*'Scaling Factors'!AA2</f>
-        <v>790.63637013614004</v>
+        <f>(Calculations!$A3)*(Calculations!U7/Calculations!$B$7)*'Scaling Factors'!AA4</f>
+        <v>7716.8080554706139</v>
       </c>
       <c r="W2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$B$7)*'Scaling Factors'!AB2</f>
-        <v>804.44519537946576</v>
+        <f>(Calculations!$A3)*(Calculations!V7/Calculations!$B$7)*'Scaling Factors'!AB4</f>
+        <v>7851.5856319890481</v>
       </c>
       <c r="X2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$B$7)*'Scaling Factors'!AC2</f>
-        <v>819.26961485708398</v>
+        <f>(Calculations!$A3)*(Calculations!W7/Calculations!$B$7)*'Scaling Factors'!AC4</f>
+        <v>7996.275661392654</v>
       </c>
       <c r="Y2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$B$7)*'Scaling Factors'!AD2</f>
-        <v>835.09066486358199</v>
+        <f>(Calculations!$A3)*(Calculations!X7/Calculations!$B$7)*'Scaling Factors'!AD4</f>
+        <v>8150.6930531894996</v>
       </c>
       <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$B$7)*'Scaling Factors'!AE2</f>
-        <v>851.24637996369404</v>
+        <f>(Calculations!$A3)*(Calculations!Y7/Calculations!$B$7)*'Scaling Factors'!AE4</f>
+        <v>8308.3768597224152</v>
       </c>
       <c r="AA2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$B$7)*'Scaling Factors'!AF2</f>
-        <v>868.08937175686106</v>
+        <f>(Calculations!$A3)*(Calculations!Z7/Calculations!$B$7)*'Scaling Factors'!AF4</f>
+        <v>8472.7686580978898</v>
       </c>
       <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$B$7)*'Scaling Factors'!AG2</f>
-        <v>884.7412365251422</v>
+        <f>(Calculations!$A3)*(Calculations!AA7/Calculations!$B$7)*'Scaling Factors'!AG4</f>
+        <v>8635.2950090679969</v>
       </c>
       <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$B$7)*'Scaling Factors'!AH2</f>
-        <v>902.05078515010689</v>
+        <f>(Calculations!$A3)*(Calculations!AB7/Calculations!$B$7)*'Scaling Factors'!AH4</f>
+        <v>8804.2405184210347</v>
       </c>
       <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$B$7)*'Scaling Factors'!AI2</f>
-        <v>920.10985726534511</v>
+        <f>(Calculations!$A3)*(Calculations!AC7/Calculations!$B$7)*'Scaling Factors'!AI4</f>
+        <v>8980.5015638738259</v>
       </c>
       <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$B$7)*'Scaling Factors'!AJ2</f>
-        <v>937.00075137984061</v>
+        <f>(Calculations!$A3)*(Calculations!AD7/Calculations!$B$7)*'Scaling Factors'!AJ4</f>
+        <v>9145.3609008461372</v>
       </c>
       <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$B$7)*'Scaling Factors'!AK2</f>
-        <v>954.24944587123423</v>
+        <f>(Calculations!$A3)*(Calculations!AE7/Calculations!$B$7)*'Scaling Factors'!AK4</f>
+        <v>9313.7124586863356</v>
       </c>
       <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$B$7)*'Scaling Factors'!AL2</f>
-        <v>972.14214379000543</v>
+        <f>(Calculations!$A3)*(Calculations!AF7/Calculations!$B$7)*'Scaling Factors'!AL4</f>
+        <v>9488.3496505092971</v>
       </c>
       <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$B$7)*'Scaling Factors'!AM2</f>
-        <v>990.2667292226929</v>
+        <f>(Calculations!$A3)*(Calculations!AG7/Calculations!$B$7)*'Scaling Factors'!AM4</f>
+        <v>9665.2501222709798</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1784,9 @@
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1606,135 +1903,135 @@
       </c>
       <c r="B2" s="8">
         <f>C2*'Scaling Factors'!G2</f>
-        <v>0</v>
+        <v>616.46046636211531</v>
       </c>
       <c r="C2" s="8">
         <f>Calculations!A3*'Scaling Factors'!H2-'DRC-BDRC'!C2</f>
-        <v>0</v>
+        <v>6044.9275792162289</v>
       </c>
       <c r="D2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*'Scaling Factors'!I2-'DRC-BDRC'!D2</f>
-        <v>6810.998961803979</v>
+        <v>7376.221769581437</v>
       </c>
       <c r="E2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*'Scaling Factors'!J2-'DRC-BDRC'!E2</f>
-        <v>8108.6492242251788</v>
+        <v>8714.4769215828164</v>
       </c>
       <c r="F2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*'Scaling Factors'!K2-'DRC-BDRC'!F2</f>
-        <v>9444.7862269877005</v>
+        <v>10067.648213327733</v>
       </c>
       <c r="G2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*'Scaling Factors'!L2-'DRC-BDRC'!G2</f>
-        <v>10801.643278486314</v>
+        <v>11437.205701182782</v>
       </c>
       <c r="H2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*'Scaling Factors'!M2-'DRC-BDRC'!H2</f>
-        <v>12177.974968736326</v>
+        <v>12824.214635534057</v>
       </c>
       <c r="I2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*'Scaling Factors'!N2-'DRC-BDRC'!I2</f>
-        <v>13576.746722765694</v>
+        <v>13650.614379475484</v>
       </c>
       <c r="J2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*'Scaling Factors'!O2-'DRC-BDRC'!J2</f>
-        <v>14969.688854781301</v>
+        <v>14457.08285180956</v>
       </c>
       <c r="K2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*'Scaling Factors'!P2-'DRC-BDRC'!K2</f>
-        <v>16386.819249172877</v>
+        <v>15277.468044870058</v>
       </c>
       <c r="L2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*'Scaling Factors'!Q2-'DRC-BDRC'!L2</f>
-        <v>17830.209489883899</v>
+        <v>16108.287683830804</v>
       </c>
       <c r="M2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*'Scaling Factors'!R2-'DRC-BDRC'!M2</f>
-        <v>19303.468527329267</v>
+        <v>16943.476722843014</v>
       </c>
       <c r="N2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*'Scaling Factors'!S2-'DRC-BDRC'!N2</f>
-        <v>20816.857999255437</v>
+        <v>17809.704123306623</v>
       </c>
       <c r="O2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)*'Scaling Factors'!T2-'DRC-BDRC'!O2</f>
-        <v>22358.783511475904</v>
+        <v>18685.795749350589</v>
       </c>
       <c r="P2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)*'Scaling Factors'!U2-'DRC-BDRC'!P2</f>
-        <v>23942.151724880325</v>
+        <v>19578.691957144751</v>
       </c>
       <c r="Q2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)*'Scaling Factors'!V2-'DRC-BDRC'!Q2</f>
-        <v>25570.522340194486</v>
+        <v>20499.005976748897</v>
       </c>
       <c r="R2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)*'Scaling Factors'!W2-'DRC-BDRC'!R2</f>
-        <v>27244.110488138052</v>
+        <v>21440.926228126515</v>
       </c>
       <c r="S2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)*'Scaling Factors'!X2-'DRC-BDRC'!S2</f>
-        <v>28962.130004659597</v>
+        <v>22396.031925923733</v>
       </c>
       <c r="T2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)*'Scaling Factors'!Y2-'DRC-BDRC'!T2</f>
-        <v>30728.677687161566</v>
+        <v>24050.470221688134</v>
       </c>
       <c r="U2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)*'Scaling Factors'!Z2-'DRC-BDRC'!U2</f>
-        <v>32536.095128301629</v>
+        <v>25732.061565637669</v>
       </c>
       <c r="V2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)*'Scaling Factors'!AA2-'DRC-BDRC'!V2</f>
-        <v>34383.082776590469</v>
+        <v>27456.911091255995</v>
       </c>
       <c r="W2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)*'Scaling Factors'!AB2-'DRC-BDRC'!W2</f>
-        <v>36265.354624198728</v>
+        <v>29218.214187589143</v>
       </c>
       <c r="X2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)*'Scaling Factors'!AC2-'DRC-BDRC'!X2</f>
-        <v>38177.291060036107</v>
+        <v>31000.285013500536</v>
       </c>
       <c r="Y2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)*'Scaling Factors'!AD2-'DRC-BDRC'!Y2</f>
-        <v>40189.130594593466</v>
+        <v>32873.528206267547</v>
       </c>
       <c r="Z2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)*'Scaling Factors'!AE2-'DRC-BDRC'!Z2</f>
-        <v>42229.103737372076</v>
+        <v>34771.973257613354</v>
       </c>
       <c r="AA2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)*'Scaling Factors'!AF2-'DRC-BDRC'!AA2</f>
-        <v>44292.00390542591</v>
+        <v>36687.32461908488</v>
       </c>
       <c r="AB2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)*'Scaling Factors'!AG2-'DRC-BDRC'!AB2</f>
-        <v>46373.882610256558</v>
+        <v>38623.328837713707</v>
       </c>
       <c r="AC2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)*'Scaling Factors'!AH2-'DRC-BDRC'!AC2</f>
-        <v>48469.031751005015</v>
+        <v>40566.842017734089</v>
       </c>
       <c r="AD2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)*'Scaling Factors'!AI2-'DRC-BDRC'!AD2</f>
-        <v>50621.931930429506</v>
+        <v>42561.540223821023</v>
       </c>
       <c r="AE2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)*'Scaling Factors'!AJ2-'DRC-BDRC'!AE2</f>
-        <v>52777.154445938148</v>
+        <v>44568.794296471853</v>
       </c>
       <c r="AF2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)*'Scaling Factors'!AK2-'DRC-BDRC'!AF2</f>
-        <v>54929.811851618098</v>
+        <v>46570.348838802995</v>
       </c>
       <c r="AG2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)*'Scaling Factors'!AL2-'DRC-BDRC'!AG2</f>
-        <v>57076.525215780559</v>
+        <v>48560.317709061266</v>
       </c>
       <c r="AH2" s="8">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)*'Scaling Factors'!AM2-'DRC-BDRC'!AH2</f>
-        <v>59214.818013285403</v>
+        <v>50539.834620237118</v>
       </c>
     </row>
   </sheetData>
